--- a/Netbeans/ANA-ADDIX/output/data_storage/gigazine.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storage/gigazine.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\ANA\ANA_2020\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storge\backup\Data_storage_empty\"/>
     </mc:Choice>
@@ -37,18 +37,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>Url</t>
   </si>
   <si>
     <t>url_articles</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20191121-skin-integrated-wireless-interfaces/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20191108-world-first-penis-transplant/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20191023-nikon-small-world-2019-photomicrography/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20191020-skin-on-interfaces-case/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20191009-playstation-5-release-controller/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20191004-apple-virtual-keyboard-haptic-technology/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190926-brain-pay-attention-filter/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190906-apple-event-rumors/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190813-us-navy-no-touchscreens/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190810-barefoot-sole/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190724-apple-iphone-11-leak/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190723-asus-rog-phone-ii/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190712-noise-boost-performance/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190626-vr-mental-health/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190531-sensor-packed-glove/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190517-prevent-pregnancy-pullout-method/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190428-ntt-supersonic-drone-chokaigi2019/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190402-nintendo-labo-toy-con-vr-kit-wind-bird/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190314-mouse-in-video-game-vr/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190207-paper-versus-screens/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20191127-boston-dynamics-robot-police-dog/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20191125-nasa-bruie/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20191108-first-biometric-yubikey/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20191025-rats-drive-cars-relaxing/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20191021-apt41-teamviewer/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20191021-mercedes-benz-app-exposed-information/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20191011-iran-military-killer-robot/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20191004-google-levi-smart-jacket/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190927-headline/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190926-shotwell-lawsuit-patent/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190913-anker-eufy-robovac-l70-hybrid/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190902-franklin-expedition-ship-wreck/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190825-how-to-find-hidden-camera/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190817-fate-dominate-grail-war/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190801-zoom-contact-lense-by-blink/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190614-starsky-robotics-unmanned-truck/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190531-canada-uses-anti-spam-law/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190516-whatsapp-hacked-just-a-call/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190425-hacker-break-tracking-apps/</t>
+  </si>
+  <si>
+    <t>https://gigazine.net/news/20190402-disney-use-science-female-personality/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,7 +555,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -463,7 +584,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -491,7 +612,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -519,7 +640,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -547,7 +668,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -575,7 +696,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -603,7 +724,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -631,7 +752,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -659,7 +780,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -685,7 +806,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -713,7 +834,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -741,7 +862,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -769,7 +890,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -797,7 +918,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -817,7 +938,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD31"/>
@@ -825,17 +946,117 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +1066,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD56"/>
@@ -853,17 +1074,117 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +1200,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -907,7 +1228,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
